--- a/analysis/pre_gemini_data/participant260/Sheet2.xlsx
+++ b/analysis/pre_gemini_data/participant260/Sheet2.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,97 +422,93 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>conditionalstate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
@@ -568,10 +552,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -597,7 +581,7 @@
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
@@ -619,10 +603,10 @@
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -648,7 +632,7 @@
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
@@ -670,10 +654,10 @@
         <v>6981.2</v>
       </c>
       <c r="D5" t="n">
-        <v>28377.95</v>
+        <v>26017.15</v>
       </c>
       <c r="E5" t="n">
-        <v>14388.59</v>
+        <v>14205.09</v>
       </c>
       <c r="F5" t="n">
         <v>1401.43</v>
@@ -699,7 +683,7 @@
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>91997.66</v>
+        <v>71757.98</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
@@ -715,46 +699,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="C6" t="n">
-        <v>3.31</v>
+        <v>5.83</v>
       </c>
       <c r="D6" t="n">
-        <v>13.45</v>
+        <v>21.74</v>
       </c>
       <c r="E6" t="n">
-        <v>6.82</v>
+        <v>11.87</v>
       </c>
       <c r="F6" t="n">
-        <v>0.66</v>
+        <v>1.17</v>
       </c>
       <c r="G6" t="n">
         <v>38.55</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66</v>
+        <v>1.17</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>2.44</v>
+        <v>4.31</v>
       </c>
       <c r="K6" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>2.32</v>
       </c>
       <c r="M6" t="n">
-        <v>0.66</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>43.59</v>
+        <v>59.97</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -772,10 +756,10 @@
         <v>410.66</v>
       </c>
       <c r="D7" t="n">
-        <v>337.83</v>
+        <v>329.33</v>
       </c>
       <c r="E7" t="n">
-        <v>350.94</v>
+        <v>355.13</v>
       </c>
       <c r="F7" t="n">
         <v>1401.43</v>
@@ -801,7 +785,7 @@
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>338.23</v>
+        <v>366.11</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
@@ -883,7 +867,11 @@
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -903,6 +891,322 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>arg2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>condbody</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>conditionalstate</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>literal</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>literal2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>literal3</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>methodcall</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>methodcall2</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>methoddec</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>var2</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>var3</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>var5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Revisit count</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>123</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>76</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>2360.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>35234.67</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>20153.75</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>472.16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>286.46</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>265.18</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1234.56</v>
+      </c>
+      <c r="E18" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>250.16</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>216.86</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
